--- a/data/trans_camb/P38A-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Dificultad-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-1.760760562762453</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-11.98010505178441</v>
+        <v>-11.98010505178438</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.864726009332563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.72311045197061</v>
+        <v>-0.7231104519706211</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7386100292368414</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.548781506319478</v>
+        <v>-5.548781506319466</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.010982988078656</v>
+        <v>-5.209213675311786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.16542004876065</v>
+        <v>-17.88713999599993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3987051049474934</v>
+        <v>0.5665276517040798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.566602673072551</v>
+        <v>-4.300028839207159</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.375620445638764</v>
+        <v>-1.47735803797978</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.608168105083754</v>
+        <v>-8.512992852832852</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.599398494130905</v>
+        <v>1.317518123465254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-6.981541327581764</v>
+        <v>-6.771228334389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.564295299799754</v>
+        <v>5.803598043391727</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.450451852169702</v>
+        <v>2.626061630058364</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.8667008826956</v>
+        <v>2.682905351479802</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.568115702126594</v>
+        <v>-2.430343141005298</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.02131258998540977</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1450095330112547</v>
+        <v>-0.1450095330112544</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.03278839548712449</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.008276404585585368</v>
+        <v>-0.008276404585585494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008681285452913471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06521784739638337</v>
+        <v>-0.06521784739638324</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05984017928510263</v>
+        <v>-0.0622153986170534</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2148108104421043</v>
+        <v>-0.2137852007132075</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.004497620356394772</v>
+        <v>0.006342650110055069</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05105019381578757</v>
+        <v>-0.04865332981615978</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01612001361687653</v>
+        <v>-0.01708044754897271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1003241403065778</v>
+        <v>-0.0992672867815298</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01959220318102337</v>
+        <v>0.01615096152406737</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.08528628993179517</v>
+        <v>-0.08236638955031184</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0653541158347385</v>
+        <v>0.06771206281768631</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.0284143712773148</v>
+        <v>0.03024921140038157</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0342027397657507</v>
+        <v>0.03213941711139941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03038934119814098</v>
+        <v>-0.0293182761086532</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.5409727019035859</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.8699845930682737</v>
+        <v>-0.8699845930682848</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.094162926480921</v>
+        <v>-3.581958668092207</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.672261743079676</v>
+        <v>-4.342597767621064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.387938189528235</v>
+        <v>-3.413513816111151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.292867390945292</v>
+        <v>-4.326083165065349</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.822980923449204</v>
+        <v>-2.886173871567804</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.074001538026815</v>
+        <v>-3.388903673615334</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.122374430234527</v>
+        <v>3.169011164989063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.58310931649049</v>
+        <v>3.65134362686579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.969501292936526</v>
+        <v>1.979593970934077</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.225342618286628</v>
+        <v>1.358146663197221</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.540853656569342</v>
+        <v>1.416992881118782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.609076242529176</v>
+        <v>1.193927032324663</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.006197265910339399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.009966354757219161</v>
+        <v>-0.009966354757219287</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04765353199957414</v>
+        <v>-0.04161912715535706</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04323621662584773</v>
+        <v>-0.05063801452798191</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03679553499660018</v>
+        <v>-0.0374219552960069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04723103468750856</v>
+        <v>-0.04732442396402581</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03195333261184945</v>
+        <v>-0.03262927198846566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03490039320846387</v>
+        <v>-0.03848057867263398</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03765339937153699</v>
+        <v>0.03877213585071043</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04336469863257632</v>
+        <v>0.0445730639268599</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02208173708966612</v>
+        <v>0.02215389115055473</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01376905124298278</v>
+        <v>0.01546170072523691</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01804111234714464</v>
+        <v>0.01638568493992498</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01868977529573602</v>
+        <v>0.0138233347464136</v>
       </c>
     </row>
     <row r="16">
@@ -932,19 +932,19 @@
         <v>-0.9736414826582607</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-2.335545050635113</v>
+        <v>-2.335545050635124</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8255475336576779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.681514060862744</v>
+        <v>-2.681514060862733</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.1397193297465682</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.502305602678767</v>
+        <v>-2.502305602678756</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.156042431391574</v>
+        <v>-4.062912942133545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.758181555919158</v>
+        <v>-5.910824011223772</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.893661227801749</v>
+        <v>-1.940658373619217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.311715840546369</v>
+        <v>-5.548617713535992</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.18566617721712</v>
+        <v>-2.064492328000754</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.659826503925782</v>
+        <v>-4.762599911428001</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.102425914586349</v>
+        <v>2.337551502140823</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.092066540061382</v>
+        <v>0.9754118776346358</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.424710957489143</v>
+        <v>3.356502213710529</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.11081071198258</v>
+        <v>-0.1012917766782664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.156041421344061</v>
+        <v>2.026099153438664</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.2312974315838863</v>
+        <v>-0.5016864926419452</v>
       </c>
     </row>
     <row r="19">
@@ -1010,19 +1010,19 @@
         <v>-0.01101534575914569</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.02642331569374707</v>
+        <v>-0.0264233156937472</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.009053780025336019</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.02940816543213592</v>
+        <v>-0.0294081654321358</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.001556231613012908</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.02787135531906361</v>
+        <v>-0.02787135531906348</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04596328367833367</v>
+        <v>-0.0456028201576895</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06367904652621967</v>
+        <v>-0.06586644880994215</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02058127988946243</v>
+        <v>-0.02111368780986689</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05801940371691549</v>
+        <v>-0.0598762026270485</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02406572976746728</v>
+        <v>-0.02271953422253619</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05161649327633475</v>
+        <v>-0.05237034912307586</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02421106495382031</v>
+        <v>0.02694918746598627</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.01271975351319362</v>
+        <v>0.01116127262366044</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03804370429366083</v>
+        <v>0.03745549778423813</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.001307014960154048</v>
+        <v>-0.00112753527097595</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02426807363087729</v>
+        <v>0.02275162912107109</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.00266282814875652</v>
+        <v>-0.005705245311357318</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>-5.057143813771559</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.701849398683598</v>
+        <v>-2.701849398683609</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-4.498444268218693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.602198284927403</v>
+        <v>-1.602198284927392</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-4.713472588911561</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.136887378723851</v>
+        <v>-2.136887378723862</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.436441510510491</v>
+        <v>-9.678315011088282</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.690514349447117</v>
+        <v>-6.868944629756492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.594595345336288</v>
+        <v>-8.833703645549456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.785258039555467</v>
+        <v>-5.241443851222625</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.481794505359208</v>
+        <v>-7.463570382994472</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.917985285757392</v>
+        <v>-4.69164745174938</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5690214781097241</v>
+        <v>-0.6307640832337831</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.000249695549213</v>
+        <v>1.329050814390845</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1204220187062763</v>
+        <v>-0.1344536407265448</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.944527851485877</v>
+        <v>1.712885210520747</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.503611777370406</v>
+        <v>-1.27701702934599</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4530815004315936</v>
+        <v>0.6007229309649174</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>-0.05768612277190224</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.03081961317754464</v>
+        <v>-0.03081961317754477</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.04924651936196667</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.01753999475281512</v>
+        <v>-0.017539994752815</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.05272043805656523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.02390119737810585</v>
+        <v>-0.02390119737810598</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1051442909879693</v>
+        <v>-0.1092792604724196</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07469813446128282</v>
+        <v>-0.07641847297997367</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09233101731602825</v>
+        <v>-0.09491852510759187</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05144189021067355</v>
+        <v>-0.05624233811238318</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08241250709601228</v>
+        <v>-0.08350741720054397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05409943104167</v>
+        <v>-0.05187500105158648</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.006623058091947388</v>
+        <v>-0.007253291963953511</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01137539530345054</v>
+        <v>0.01552236414704869</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.001326304844460079</v>
+        <v>-0.001501134755656804</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.02205394416742508</v>
+        <v>0.01920731244962466</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01693160869263595</v>
+        <v>-0.01554871420984873</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.004854328764813703</v>
+        <v>0.006755750517023524</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>0.2710314850694284</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.143131149886356</v>
+        <v>-1.143131149886345</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.7266368544355806</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.70890266151168</v>
+        <v>-1.708902661511691</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.65746471800363</v>
+        <v>-3.626289543256626</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.437979768221305</v>
+        <v>-4.40341385508277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.165740459133233</v>
+        <v>-1.22059154655765</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.756359403032647</v>
+        <v>-2.601301057333988</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.914021481462112</v>
+        <v>-1.885296250005443</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.145845281296948</v>
+        <v>-2.927225112893928</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.09845251339008658</v>
+        <v>-0.001249904786765279</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4134692070139547</v>
+        <v>-0.3389787538791563</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.750681019723939</v>
+        <v>1.725287372581487</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3813729036739775</v>
+        <v>0.3220633432570887</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.316125673322997</v>
+        <v>0.3343678203214381</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.4146454398838862</v>
+        <v>-0.4313211260129761</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>0.003024233176934272</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.01275532674068387</v>
+        <v>-0.01275532674068375</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.008302006845844664</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01952463807491875</v>
+        <v>-0.01952463807491888</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04247984507609866</v>
+        <v>-0.04197749678248864</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05138032004025028</v>
+        <v>-0.05090272443419854</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.01289733868028092</v>
+        <v>-0.01351874861172359</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03054493090729348</v>
+        <v>-0.02889793460145106</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02174689303277515</v>
+        <v>-0.02139740241979732</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03599488345693756</v>
+        <v>-0.03331781005381611</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.001195258436520748</v>
+        <v>-2.673724688043356e-05</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.004703760883743177</v>
+        <v>-0.003889586209038896</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01967713487550779</v>
+        <v>0.01950450350881503</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.004135842387479897</v>
+        <v>0.003643095310151834</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.003631150175751606</v>
+        <v>0.003835511480074598</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.004822139581094678</v>
+        <v>-0.004949300212801612</v>
       </c>
     </row>
     <row r="34">
